--- a/DAA-work/ngos.xlsx
+++ b/DAA-work/ngos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,80 +462,42 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NGO A</t>
+          <t>non</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12.82790078017455</v>
+        <v>12.85632249131457</v>
       </c>
       <c r="D2" t="n">
-        <v>80.16543145355483</v>
+        <v>80.17221450805664</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NGO B</t>
+          <t>bid</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12.84098092595836</v>
+        <v>12.80661224619107</v>
       </c>
       <c r="D3" t="n">
-        <v>80.17018388472175</v>
+        <v>80.14921188354492</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SER</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12.82075946357443</v>
-      </c>
-      <c r="D4" t="n">
-        <v>80.17263686359067</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12.82293548226873</v>
-      </c>
-      <c r="D5" t="n">
-        <v>80.16242310085502</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/DAA-work/ngos.xlsx
+++ b/DAA-work/ngos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,10 +480,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A3" t="n">
+        <v>12</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -498,6 +496,27 @@
       </c>
       <c r="E3" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1213</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NGO123</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12.80560789764558</v>
+      </c>
+      <c r="D4" t="n">
+        <v>80.18903732299806</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
